--- a/data/outputs/OR_elsevier/10.xlsx
+++ b/data/outputs/OR_elsevier/10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS95"/>
+  <dimension ref="A1:BU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84940790057</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84940791462</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1375,6 +1397,12 @@
           <t>2-s2.0-84940788039</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84940795628</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1804,6 +1838,12 @@
         <is>
           <t>2-s2.0-84940795938</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -2008,6 +2048,12 @@
           <t>2-s2.0-84940797382</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2227,6 +2273,12 @@
           <t>2-s2.0-84940741665</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2442,6 +2494,12 @@
           <t>2-s2.0-84938747052</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2665,6 +2723,12 @@
           <t>2-s2.0-84938746172</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2884,6 +2948,12 @@
           <t>2-s2.0-84938745449</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3098,6 +3168,12 @@
         <is>
           <t>2-s2.0-84938749228</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3306,6 +3382,12 @@
           <t>2-s2.0-84938746486</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3529,6 +3611,12 @@
           <t>2-s2.0-84938748409</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3744,6 +3832,12 @@
           <t>2-s2.0-84938740675</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3955,6 +4049,12 @@
           <t>2-s2.0-84930577423</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4178,6 +4278,12 @@
           <t>2-s2.0-84930575064</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4397,6 +4503,12 @@
           <t>2-s2.0-84930583320</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4607,6 +4719,12 @@
         <is>
           <t>2-s2.0-84930578365</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4817,6 +4935,12 @@
           <t>2-s2.0-84930572773</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5032,6 +5156,12 @@
           <t>2-s2.0-84930572752</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5251,6 +5381,12 @@
           <t>2-s2.0-84930571802</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5474,6 +5610,12 @@
           <t>2-s2.0-84930576618</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5684,6 +5826,12 @@
         <is>
           <t>2-s2.0-84929605868</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -5892,6 +6040,12 @@
           <t>2-s2.0-84929607352</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6115,6 +6269,12 @@
           <t>2-s2.0-84929605964</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6330,6 +6490,12 @@
           <t>2-s2.0-85027939950</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6544,6 +6710,12 @@
         <is>
           <t>2-s2.0-85028228557</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -6752,6 +6924,12 @@
           <t>2-s2.0-84929606640</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6967,6 +7145,12 @@
           <t>2-s2.0-84929606229</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7182,6 +7366,12 @@
           <t>2-s2.0-84929573791</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7407,6 +7597,12 @@
           <t>2-s2.0-84929046281</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7626,6 +7822,12 @@
           <t>2-s2.0-84929047599</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7849,6 +8051,12 @@
           <t>2-s2.0-84929049585</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8064,6 +8272,12 @@
           <t>2-s2.0-84929048871</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8287,6 +8501,12 @@
           <t>2-s2.0-84929047119</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8498,6 +8718,12 @@
           <t>2-s2.0-84929046764</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8709,6 +8935,12 @@
           <t>2-s2.0-84929045036</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8928,6 +9160,12 @@
           <t>2-s2.0-84929050517</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9151,6 +9389,12 @@
           <t>2-s2.0-84927578752</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9366,6 +9610,12 @@
           <t>2-s2.0-84927567098</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9585,6 +9835,12 @@
           <t>2-s2.0-84927573905</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9800,6 +10056,12 @@
           <t>2-s2.0-84927570317</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10014,6 +10276,12 @@
         <is>
           <t>2-s2.0-84927570859</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -10222,6 +10490,12 @@
           <t>2-s2.0-84927581309</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10437,6 +10711,12 @@
           <t>2-s2.0-84927575436</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10648,6 +10928,12 @@
           <t>2-s2.0-84927571753</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10871,6 +11157,12 @@
           <t>2-s2.0-84927576281</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11086,6 +11378,12 @@
           <t>2-s2.0-84924071092</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11300,6 +11598,12 @@
         <is>
           <t>2-s2.0-84924078289</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -11508,6 +11812,12 @@
           <t>2-s2.0-84924032439</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11731,6 +12041,12 @@
           <t>2-s2.0-84924060208</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11953,6 +12269,12 @@
         <is>
           <t>2-s2.0-84924087698</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -12161,6 +12483,12 @@
           <t>2-s2.0-84924028315</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12387,6 +12715,12 @@
         <is>
           <t>2-s2.0-84899663810</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -12594,6 +12928,12 @@
         <is>
           <t>2-s2.0-84924078912</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -12778,6 +13118,12 @@
           <t>2-s2.0-84924065298</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12997,6 +13343,12 @@
           <t>2-s2.0-84926183105</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13216,6 +13568,12 @@
           <t>2-s2.0-84926203738</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13431,6 +13789,12 @@
           <t>2-s2.0-84926156188</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13650,6 +14014,12 @@
           <t>2-s2.0-84926203889</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13873,6 +14243,12 @@
           <t>2-s2.0-84926156459</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14088,6 +14464,12 @@
           <t>2-s2.0-84926164280</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14299,6 +14681,12 @@
           <t>2-s2.0-84926171148</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14514,6 +14902,12 @@
           <t>2-s2.0-84926211775</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14733,6 +15127,12 @@
           <t>2-s2.0-84926135883</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14956,6 +15356,12 @@
           <t>2-s2.0-84926164174</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15171,6 +15577,12 @@
           <t>2-s2.0-84926190343</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15393,6 +15805,12 @@
         <is>
           <t>2-s2.0-84926215776</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -15603,6 +16021,12 @@
           <t>2-s2.0-84926151957</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15818,6 +16242,12 @@
           <t>2-s2.0-84926175864</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16033,6 +16463,12 @@
           <t>2-s2.0-84926185728</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16248,6 +16684,12 @@
           <t>2-s2.0-84926142990</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16463,6 +16905,12 @@
           <t>2-s2.0-84924272297</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16686,6 +17134,12 @@
           <t>2-s2.0-84926220879</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16905,6 +17359,12 @@
           <t>2-s2.0-84926200455</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17131,6 +17591,12 @@
         <is>
           <t>2-s2.0-84926150194</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -17339,6 +17805,12 @@
           <t>2-s2.0-84926213572</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17558,6 +18030,12 @@
           <t>2-s2.0-84926213254</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17773,6 +18251,12 @@
           <t>2-s2.0-84926190522</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17992,6 +18476,12 @@
           <t>2-s2.0-84926179375</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18206,6 +18696,12 @@
         <is>
           <t>2-s2.0-84926195339</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -18414,6 +18910,12 @@
           <t>2-s2.0-84926229044</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18621,6 +19123,12 @@
           <t>2-s2.0-84926216837</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18835,6 +19343,12 @@
         <is>
           <t>2-s2.0-84926171175</t>
         </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -19043,6 +19557,12 @@
           <t>2-s2.0-84926226728</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19254,6 +19774,12 @@
           <t>2-s2.0-84926165143</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19464,6 +19990,12 @@
         <is>
           <t>2-s2.0-84942827886</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -19668,6 +20200,12 @@
           <t>2-s2.0-84942818856</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19879,6 +20417,12 @@
           <t>2-s2.0-84942824478</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20085,6 +20629,12 @@
         <is>
           <t>2-s2.0-84942830812</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -20289,6 +20839,12 @@
           <t>2-s2.0-84942831973</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20508,6 +21064,12 @@
           <t>2-s2.0-84942837503</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20727,6 +21289,12 @@
           <t>2-s2.0-84942831156</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20946,6 +21514,12 @@
           <t>2-s2.0-84942838681</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
